--- a/import/ACEM.xlsx
+++ b/import/ACEM.xlsx
@@ -301,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -361,6 +361,12 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -495,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,6 +606,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -628,11 +638,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,15 +650,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,15 +666,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,7 +936,7 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1128,10 +1138,10 @@
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
       <c r="G17" s="21"/>
@@ -1201,7 +1211,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -1214,11 +1224,11 @@
     </row>
     <row r="24" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="12"/>
@@ -1270,7 +1280,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1278,10 +1288,10 @@
       <c r="B29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1323,109 +1333,109 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
-      <c r="B35" s="32"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
-      <c r="B37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16"/>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1467,7 +1477,7 @@
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="16"/>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -1480,11 +1490,11 @@
     </row>
     <row r="46" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="2"/>
@@ -1541,7 +1551,7 @@
     </row>
     <row r="51" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="16"/>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -1554,61 +1564,61 @@
     </row>
     <row r="52" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="16"/>
-      <c r="B52" s="32"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="16"/>
-      <c r="B53" s="32"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="16"/>
-      <c r="B54" s="32"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="35"/>
       <c r="G54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="16"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35"/>
       <c r="G55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16"/>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
       <c r="G56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1620,8 +1630,8 @@
         <v>83</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1631,8 +1641,8 @@
         <v>84</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
       <c r="G58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1644,8 +1654,8 @@
         <v>86</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
       <c r="G59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1655,142 +1665,142 @@
         <v>87</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
       <c r="G60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="16"/>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="36" t="s">
         <v>88</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
       <c r="G61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="16"/>
-      <c r="B62" s="35"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
       <c r="G62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="16"/>
-      <c r="B63" s="35"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="13"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
       <c r="G74" s="2"/>
     </row>
   </sheetData>
